--- a/code/test/dataframes/Pandas111.xlsx
+++ b/code/test/dataframes/Pandas111.xlsx
@@ -404,322 +404,322 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c s="1" t="s" r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="1" t="s" r="C1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="1" t="s" r="D1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="1" t="s" r="E1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c s="1" t="n" r="A2">
-        <v>0.14599034404361172</v>
+        <v>0.2549039664327203</v>
       </c>
       <c t="n" r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="n" r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c s="1" t="n" r="A3">
-        <v>0.16100610350914504</v>
+        <v>0.35478181682618654</v>
       </c>
       <c t="n" r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="n" r="C3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="E3">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c s="1" t="n" r="A4">
-        <v>0.17964031035408046</v>
+        <v>0.31535174109020064</v>
       </c>
       <c t="n" r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="E4">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c s="1" t="n" r="A5">
-        <v>0.18787740513630202</v>
+        <v>0.3338125275154786</v>
       </c>
       <c t="n" r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="n" r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c s="1" t="n" r="A6">
-        <v>0.2013907069132586</v>
+        <v>0.17964031035408046</v>
       </c>
       <c t="n" r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c t="n" r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="n" r="E6">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c s="1" t="n" r="A7">
-        <v>0.20356719395034573</v>
+        <v>0.34204593875625355</v>
       </c>
       <c t="n" r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="n" r="E7">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c s="1" t="n" r="A8">
-        <v>0.21018811629290227</v>
+        <v>0.2013907069132586</v>
       </c>
       <c t="n" r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C8">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c s="1" t="n" r="A9">
-        <v>0.22066999620609992</v>
+        <v>0.21018811629290227</v>
       </c>
       <c t="n" r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c t="n" r="C9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="n" r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c s="1" t="n" r="A10">
-        <v>0.22280972317589728</v>
+        <v>0.18787740513630202</v>
       </c>
       <c t="n" r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C10">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="E10">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c s="1" t="n" r="A11">
-        <v>0.24363653310247163</v>
+        <v>0.3439294826399343</v>
       </c>
       <c t="n" r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C11">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c s="1" t="n" r="A12">
-        <v>0.24368783432210978</v>
+        <v>0.22280972317589728</v>
       </c>
       <c t="n" r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c t="n" r="C12">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="E12">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c s="1" t="n" r="A13">
-        <v>0.2525305753031878</v>
+        <v>0.31757591604666235</v>
       </c>
       <c t="n" r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c t="n" r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="n" r="E13">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c s="1" t="n" r="A14">
-        <v>0.2549039664327203</v>
+        <v>0.35567511231240484</v>
       </c>
       <c t="n" r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c s="1" t="n" r="A15">
-        <v>0.25798145794965643</v>
+        <v>0.33313995020973647</v>
       </c>
       <c t="n" r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="n" r="C15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E15">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c s="1" t="n" r="A16">
-        <v>0.25958920068627805</v>
+        <v>0.3663173663228573</v>
       </c>
       <c t="n" r="B16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="E16">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c s="1" t="n" r="A17">
-        <v>0.2598068604771137</v>
+        <v>0.2525305753031878</v>
       </c>
       <c t="n" r="B17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="C17">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c s="1" t="n" r="A18">
-        <v>0.26067272897491006</v>
+        <v>0.16100610350914504</v>
       </c>
       <c t="n" r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="n" r="C18">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="E18">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c s="1" t="n" r="A19">
-        <v>0.27590253632600414</v>
+        <v>0.40947719609112343</v>
       </c>
       <c t="n" r="B19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E19">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,305 +727,305 @@
         <v>0.28246368024816876</v>
       </c>
       <c t="n" r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c s="1" t="n" r="A21">
-        <v>0.29037571506590487</v>
+        <v>0.26067272897491006</v>
       </c>
       <c t="n" r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c t="n" r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E21">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c s="1" t="n" r="A22">
-        <v>0.29412898455986064</v>
+        <v>0.34510038998390813</v>
       </c>
       <c t="n" r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C22">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E22">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c s="1" t="n" r="A23">
-        <v>0.29702787597327907</v>
+        <v>0.31788385954450166</v>
       </c>
       <c t="n" r="B23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C23">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c s="1" t="n" r="A24">
-        <v>0.31479413452861094</v>
+        <v>0.2598068604771137</v>
       </c>
       <c t="n" r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c t="n" r="C24">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="E24">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c s="1" t="n" r="A25">
-        <v>0.31535174109020064</v>
+        <v>0.25798145794965643</v>
       </c>
       <c t="n" r="B25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C25">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E25">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c s="1" t="n" r="A26">
-        <v>0.31757591604666235</v>
+        <v>0.14599034404361172</v>
       </c>
       <c t="n" r="B26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c s="1" t="n" r="A27">
-        <v>0.31788385954450166</v>
+        <v>0.25958920068627805</v>
       </c>
       <c t="n" r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="n" r="C27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E27">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c s="1" t="n" r="A28">
-        <v>0.32173694856257873</v>
+        <v>0.22066999620609992</v>
       </c>
       <c t="n" r="B28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="n" r="C28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E28">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c s="1" t="n" r="A29">
-        <v>0.33313995020973647</v>
+        <v>0.29037571506590487</v>
       </c>
       <c t="n" r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="C29">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="E29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c s="1" t="n" r="A30">
-        <v>0.3338125275154786</v>
+        <v>0.24368783432210978</v>
       </c>
       <c t="n" r="B30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c t="n" r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E30">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c s="1" t="n" r="A31">
-        <v>0.34204593875625355</v>
+        <v>0.29702787597327907</v>
       </c>
       <c t="n" r="B31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C31">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E31">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c s="1" t="n" r="A32">
-        <v>0.3439294826399343</v>
+        <v>0.27590253632600414</v>
       </c>
       <c t="n" r="B32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c s="1" t="n" r="A33">
-        <v>0.34510038998390813</v>
+        <v>0.31479413452861094</v>
       </c>
       <c t="n" r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="n" r="C33">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E33">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c s="1" t="n" r="A34">
-        <v>0.35478181682618654</v>
+        <v>0.29412898455986064</v>
       </c>
       <c t="n" r="B34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c t="n" r="C34">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="E34">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c s="1" t="n" r="A35">
-        <v>0.35567511231240484</v>
+        <v>0.20356719395034573</v>
       </c>
       <c t="n" r="B35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c t="n" r="D35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c s="1" t="n" r="A36">
-        <v>0.3663173663228573</v>
+        <v>0.24363653310247163</v>
       </c>
       <c t="n" r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="n" r="C36">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E36">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c s="1" t="n" r="A37">
-        <v>0.40947719609112343</v>
+        <v>0.32173694856257873</v>
       </c>
       <c t="n" r="B37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="C37">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c t="n" r="D37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="E37">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
